--- a/earlywarning-pom/Document/SpecificheIndicatori/Elenco BR Italia.xlsx
+++ b/earlywarning-pom/Document/SpecificheIndicatori/Elenco BR Italia.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="170">
   <si>
     <t>BR01 - Counterparty Rating (indicatore 1)</t>
   </si>
@@ -531,6 +531,9 @@
   </si>
   <si>
     <t>BR185 - Bond Rating S01</t>
+  </si>
+  <si>
+    <t>Confermate</t>
   </si>
 </sst>
 </file>
@@ -605,7 +608,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -616,6 +619,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -930,10 +934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F164"/>
+  <dimension ref="A1:I164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="B144" sqref="B144"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="B165" sqref="B165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -945,7 +949,7 @@
     <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>151</v>
       </c>
@@ -965,7 +969,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -979,7 +983,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -990,11 +994,14 @@
         <v>122</v>
       </c>
       <c r="F3" t="str">
-        <f>IF(A3=A2,"",IF(A3=1+A2,"",A3-A2))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" ref="F3:F34" si="0">IF(A3=A2,"",IF(A3=1+A2,"",A3-A2))</f>
+        <v/>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1005,11 +1012,11 @@
         <v>122</v>
       </c>
       <c r="F4" t="str">
-        <f>IF(A4=A3,"",IF(A4=1+A3,"",A4-A3))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1026,11 +1033,11 @@
         <v>133</v>
       </c>
       <c r="F5" t="str">
-        <f>IF(A5=A4,"",IF(A5=1+A4,"",A5-A4))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1044,11 +1051,11 @@
         <v>133</v>
       </c>
       <c r="F6" t="str">
-        <f>IF(A6=A5,"",IF(A6=1+A5,"",A6-A5))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1059,11 +1066,11 @@
         <v>122</v>
       </c>
       <c r="F7" t="str">
-        <f>IF(A7=A6,"",IF(A7=1+A6,"",A7-A6))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1074,11 +1081,11 @@
         <v>122</v>
       </c>
       <c r="F8" t="str">
-        <f>IF(A8=A7,"",IF(A8=1+A7,"",A8-A7))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1092,11 +1099,11 @@
         <v>133</v>
       </c>
       <c r="F9" t="str">
-        <f>IF(A9=A8,"",IF(A9=1+A8,"",A9-A8))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>4</v>
       </c>
@@ -1107,11 +1114,11 @@
         <v>122</v>
       </c>
       <c r="F10" t="str">
-        <f>IF(A10=A9,"",IF(A10=1+A9,"",A10-A9))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4</v>
       </c>
@@ -1122,11 +1129,11 @@
         <v>122</v>
       </c>
       <c r="F11" t="str">
-        <f>IF(A11=A10,"",IF(A11=1+A10,"",A11-A10))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1140,11 +1147,11 @@
         <v>133</v>
       </c>
       <c r="F12" t="str">
-        <f>IF(A12=A11,"",IF(A12=1+A11,"",A12-A11))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>5</v>
       </c>
@@ -1155,11 +1162,11 @@
         <v>122</v>
       </c>
       <c r="F13" t="str">
-        <f>IF(A13=A12,"",IF(A13=1+A12,"",A13-A12))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>5</v>
       </c>
@@ -1170,11 +1177,11 @@
         <v>122</v>
       </c>
       <c r="F14" t="str">
-        <f>IF(A14=A13,"",IF(A14=1+A13,"",A14-A13))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6</v>
       </c>
@@ -1191,11 +1198,11 @@
         <v>133</v>
       </c>
       <c r="F15" t="str">
-        <f>IF(A15=A14,"",IF(A15=1+A14,"",A15-A14))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>7</v>
       </c>
@@ -1212,7 +1219,7 @@
         <v>133</v>
       </c>
       <c r="F16" t="str">
-        <f>IF(A16=A15,"",IF(A16=1+A15,"",A16-A15))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1227,7 +1234,7 @@
         <v>122</v>
       </c>
       <c r="F17" t="str">
-        <f>IF(A17=A16,"",IF(A17=1+A16,"",A17-A16))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1242,7 +1249,7 @@
         <v>122</v>
       </c>
       <c r="F18" t="str">
-        <f>IF(A18=A17,"",IF(A18=1+A17,"",A18-A17))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1260,7 +1267,7 @@
         <v>133</v>
       </c>
       <c r="F19" t="str">
-        <f>IF(A19=A18,"",IF(A19=1+A18,"",A19-A18))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1275,7 +1282,7 @@
         <v>122</v>
       </c>
       <c r="F20" t="str">
-        <f>IF(A20=A19,"",IF(A20=1+A19,"",A20-A19))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1290,7 +1297,7 @@
         <v>122</v>
       </c>
       <c r="F21" t="str">
-        <f>IF(A21=A20,"",IF(A21=1+A20,"",A21-A20))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1308,7 +1315,7 @@
         <v>133</v>
       </c>
       <c r="F22" t="str">
-        <f>IF(A22=A21,"",IF(A22=1+A21,"",A22-A21))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1329,7 +1336,7 @@
         <v>133</v>
       </c>
       <c r="F23" t="str">
-        <f>IF(A23=A22,"",IF(A23=1+A22,"",A23-A22))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1350,7 +1357,7 @@
         <v>133</v>
       </c>
       <c r="F24" t="str">
-        <f>IF(A24=A23,"",IF(A24=1+A23,"",A24-A23))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1365,7 +1372,7 @@
         <v>122</v>
       </c>
       <c r="F25" t="str">
-        <f>IF(A25=A24,"",IF(A25=1+A24,"",A25-A24))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1386,7 +1393,7 @@
         <v>133</v>
       </c>
       <c r="F26" t="str">
-        <f>IF(A26=A25,"",IF(A26=1+A25,"",A26-A25))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1407,7 +1414,7 @@
         <v>133</v>
       </c>
       <c r="F27" t="str">
-        <f>IF(A27=A26,"",IF(A27=1+A26,"",A27-A26))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1428,7 +1435,7 @@
         <v>133</v>
       </c>
       <c r="F28" t="str">
-        <f>IF(A28=A27,"",IF(A28=1+A27,"",A28-A27))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1443,7 +1450,7 @@
         <v>132</v>
       </c>
       <c r="F29" t="str">
-        <f>IF(A29=A28,"",IF(A29=1+A28,"",A29-A28))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1464,7 +1471,7 @@
         <v>133</v>
       </c>
       <c r="F30" t="str">
-        <f>IF(A30=A29,"",IF(A30=1+A29,"",A30-A29))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1485,7 +1492,7 @@
         <v>133</v>
       </c>
       <c r="F31" t="str">
-        <f>IF(A31=A30,"",IF(A31=1+A30,"",A31-A30))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1506,7 +1513,7 @@
         <v>133</v>
       </c>
       <c r="F32" t="str">
-        <f>IF(A32=A31,"",IF(A32=1+A31,"",A32-A31))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1527,7 +1534,7 @@
         <v>133</v>
       </c>
       <c r="F33" t="str">
-        <f>IF(A33=A32,"",IF(A33=1+A32,"",A33-A32))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1545,7 +1552,7 @@
         <v>133</v>
       </c>
       <c r="F34" t="str">
-        <f>IF(A34=A33,"",IF(A34=1+A33,"",A34-A33))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1566,7 +1573,7 @@
         <v>133</v>
       </c>
       <c r="F35" t="str">
-        <f>IF(A35=A34,"",IF(A35=1+A34,"",A35-A34))</f>
+        <f t="shared" ref="F35:F66" si="1">IF(A35=A34,"",IF(A35=1+A34,"",A35-A34))</f>
         <v/>
       </c>
     </row>
@@ -1581,7 +1588,7 @@
         <v>122</v>
       </c>
       <c r="F36">
-        <f>IF(A36=A35,"",IF(A36=1+A35,"",A36-A35))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -1596,7 +1603,7 @@
         <v>122</v>
       </c>
       <c r="F37" t="str">
-        <f>IF(A37=A36,"",IF(A37=1+A36,"",A37-A36))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1611,7 +1618,7 @@
         <v>122</v>
       </c>
       <c r="F38" t="str">
-        <f>IF(A38=A37,"",IF(A38=1+A37,"",A38-A37))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1632,7 +1639,7 @@
         <v>133</v>
       </c>
       <c r="F39" t="str">
-        <f>IF(A39=A38,"",IF(A39=1+A38,"",A39-A38))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1653,7 +1660,7 @@
         <v>133</v>
       </c>
       <c r="F40" t="str">
-        <f>IF(A40=A39,"",IF(A40=1+A39,"",A40-A39))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1674,7 +1681,7 @@
         <v>133</v>
       </c>
       <c r="F41" t="str">
-        <f>IF(A41=A40,"",IF(A41=1+A40,"",A41-A40))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1695,7 +1702,7 @@
         <v>133</v>
       </c>
       <c r="F42" t="str">
-        <f>IF(A42=A41,"",IF(A42=1+A41,"",A42-A41))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1713,7 +1720,7 @@
         <v>133</v>
       </c>
       <c r="F43" t="str">
-        <f>IF(A43=A42,"",IF(A43=1+A42,"",A43-A42))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1734,7 +1741,7 @@
         <v>133</v>
       </c>
       <c r="F44" t="str">
-        <f>IF(A44=A43,"",IF(A44=1+A43,"",A44-A43))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1749,7 +1756,7 @@
         <v>122</v>
       </c>
       <c r="F45" t="str">
-        <f>IF(A45=A44,"",IF(A45=1+A44,"",A45-A44))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1764,7 +1771,7 @@
         <v>122</v>
       </c>
       <c r="F46" t="str">
-        <f>IF(A46=A45,"",IF(A46=1+A45,"",A46-A45))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1785,7 +1792,7 @@
         <v>133</v>
       </c>
       <c r="F47" t="str">
-        <f>IF(A47=A46,"",IF(A47=1+A46,"",A47-A46))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1806,7 +1813,7 @@
         <v>133</v>
       </c>
       <c r="F48" t="str">
-        <f>IF(A48=A47,"",IF(A48=1+A47,"",A48-A47))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1824,7 +1831,7 @@
         <v>133</v>
       </c>
       <c r="F49" t="str">
-        <f>IF(A49=A48,"",IF(A49=1+A48,"",A49-A48))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1839,7 +1846,7 @@
         <v>122</v>
       </c>
       <c r="F50" t="str">
-        <f>IF(A50=A49,"",IF(A50=1+A49,"",A50-A49))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1857,7 +1864,7 @@
         <v>133</v>
       </c>
       <c r="F51" t="str">
-        <f>IF(A51=A50,"",IF(A51=1+A50,"",A51-A50))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1872,7 +1879,7 @@
         <v>122</v>
       </c>
       <c r="F52" t="str">
-        <f>IF(A52=A51,"",IF(A52=1+A51,"",A52-A51))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1887,7 +1894,7 @@
         <v>122</v>
       </c>
       <c r="F53">
-        <f>IF(A53=A52,"",IF(A53=1+A52,"",A53-A52))</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
     </row>
@@ -1902,7 +1909,7 @@
         <v>122</v>
       </c>
       <c r="F54" t="str">
-        <f>IF(A54=A53,"",IF(A54=1+A53,"",A54-A53))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1917,7 +1924,7 @@
         <v>122</v>
       </c>
       <c r="F55" t="str">
-        <f>IF(A55=A54,"",IF(A55=1+A54,"",A55-A54))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1932,7 +1939,7 @@
         <v>122</v>
       </c>
       <c r="F56" t="str">
-        <f>IF(A56=A55,"",IF(A56=1+A55,"",A56-A55))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1947,7 +1954,7 @@
         <v>122</v>
       </c>
       <c r="F57" t="str">
-        <f>IF(A57=A56,"",IF(A57=1+A56,"",A57-A56))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1962,7 +1969,7 @@
         <v>122</v>
       </c>
       <c r="F58" t="str">
-        <f>IF(A58=A57,"",IF(A58=1+A57,"",A58-A57))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1980,7 +1987,7 @@
         <v>133</v>
       </c>
       <c r="F59" t="str">
-        <f>IF(A59=A58,"",IF(A59=1+A58,"",A59-A58))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1998,7 +2005,7 @@
         <v>133</v>
       </c>
       <c r="F60" t="str">
-        <f>IF(A60=A59,"",IF(A60=1+A59,"",A60-A59))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2016,7 +2023,7 @@
         <v>133</v>
       </c>
       <c r="F61" t="str">
-        <f>IF(A61=A60,"",IF(A61=1+A60,"",A61-A60))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2034,7 +2041,7 @@
         <v>133</v>
       </c>
       <c r="F62" t="str">
-        <f>IF(A62=A61,"",IF(A62=1+A61,"",A62-A61))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2052,7 +2059,7 @@
         <v>133</v>
       </c>
       <c r="F63" t="str">
-        <f>IF(A63=A62,"",IF(A63=1+A62,"",A63-A62))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2070,7 +2077,7 @@
         <v>133</v>
       </c>
       <c r="F64" t="str">
-        <f>IF(A64=A63,"",IF(A64=1+A63,"",A64-A63))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2085,7 +2092,7 @@
         <v>122</v>
       </c>
       <c r="F65" t="str">
-        <f>IF(A65=A64,"",IF(A65=1+A64,"",A65-A64))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2100,7 +2107,7 @@
         <v>132</v>
       </c>
       <c r="F66" t="str">
-        <f>IF(A66=A65,"",IF(A66=1+A65,"",A66-A65))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2115,7 +2122,7 @@
         <v>133</v>
       </c>
       <c r="F67" t="str">
-        <f>IF(A67=A66,"",IF(A67=1+A66,"",A67-A66))</f>
+        <f t="shared" ref="F67:F98" si="2">IF(A67=A66,"",IF(A67=1+A66,"",A67-A66))</f>
         <v/>
       </c>
     </row>
@@ -2133,7 +2140,7 @@
         <v>133</v>
       </c>
       <c r="F68" t="str">
-        <f>IF(A68=A67,"",IF(A68=1+A67,"",A68-A67))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2151,7 +2158,7 @@
         <v>133</v>
       </c>
       <c r="F69" t="str">
-        <f>IF(A69=A68,"",IF(A69=1+A68,"",A69-A68))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2169,7 +2176,7 @@
         <v>133</v>
       </c>
       <c r="F70" t="str">
-        <f>IF(A70=A69,"",IF(A70=1+A69,"",A70-A69))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2187,7 +2194,7 @@
         <v>133</v>
       </c>
       <c r="F71" t="str">
-        <f>IF(A71=A70,"",IF(A71=1+A70,"",A71-A70))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2205,7 +2212,7 @@
         <v>133</v>
       </c>
       <c r="F72" t="str">
-        <f>IF(A72=A71,"",IF(A72=1+A71,"",A72-A71))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2220,7 +2227,7 @@
         <v>122</v>
       </c>
       <c r="F73" t="str">
-        <f>IF(A73=A72,"",IF(A73=1+A72,"",A73-A72))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2235,7 +2242,7 @@
         <v>122</v>
       </c>
       <c r="F74" t="str">
-        <f>IF(A74=A73,"",IF(A74=1+A73,"",A74-A73))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2256,7 +2263,7 @@
         <v>133</v>
       </c>
       <c r="F75" t="str">
-        <f>IF(A75=A74,"",IF(A75=1+A74,"",A75-A74))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2271,7 +2278,7 @@
         <v>122</v>
       </c>
       <c r="F76" t="str">
-        <f>IF(A76=A75,"",IF(A76=1+A75,"",A76-A75))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2292,7 +2299,7 @@
         <v>133</v>
       </c>
       <c r="F77" t="str">
-        <f>IF(A77=A76,"",IF(A77=1+A76,"",A77-A76))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2307,7 +2314,7 @@
         <v>122</v>
       </c>
       <c r="F78" t="str">
-        <f>IF(A78=A77,"",IF(A78=1+A77,"",A78-A77))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2325,7 +2332,7 @@
         <v>132</v>
       </c>
       <c r="F79" t="str">
-        <f>IF(A79=A78,"",IF(A79=1+A78,"",A79-A78))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2340,7 +2347,7 @@
         <v>122</v>
       </c>
       <c r="F80" t="str">
-        <f>IF(A80=A79,"",IF(A80=1+A79,"",A80-A79))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2355,7 +2362,7 @@
         <v>122</v>
       </c>
       <c r="F81" t="str">
-        <f>IF(A81=A80,"",IF(A81=1+A80,"",A81-A80))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2370,7 +2377,7 @@
         <v>122</v>
       </c>
       <c r="F82" t="str">
-        <f>IF(A82=A81,"",IF(A82=1+A81,"",A82-A81))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2385,7 +2392,7 @@
         <v>122</v>
       </c>
       <c r="F83" t="str">
-        <f>IF(A83=A82,"",IF(A83=1+A82,"",A83-A82))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2400,7 +2407,7 @@
         <v>122</v>
       </c>
       <c r="F84" t="str">
-        <f>IF(A84=A83,"",IF(A84=1+A83,"",A84-A83))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2415,7 +2422,7 @@
         <v>122</v>
       </c>
       <c r="F85" t="str">
-        <f>IF(A85=A84,"",IF(A85=1+A84,"",A85-A84))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2430,7 +2437,7 @@
         <v>122</v>
       </c>
       <c r="F86" t="str">
-        <f>IF(A86=A85,"",IF(A86=1+A85,"",A86-A85))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2445,7 +2452,7 @@
         <v>133</v>
       </c>
       <c r="F87" t="str">
-        <f>IF(A87=A86,"",IF(A87=1+A86,"",A87-A86))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2460,7 +2467,7 @@
         <v>122</v>
       </c>
       <c r="F88" t="str">
-        <f>IF(A88=A87,"",IF(A88=1+A87,"",A88-A87))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2475,7 +2482,7 @@
         <v>133</v>
       </c>
       <c r="F89" t="str">
-        <f>IF(A89=A88,"",IF(A89=1+A88,"",A89-A88))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2490,7 +2497,7 @@
         <v>122</v>
       </c>
       <c r="F90" t="str">
-        <f>IF(A90=A89,"",IF(A90=1+A89,"",A90-A89))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2505,7 +2512,7 @@
         <v>133</v>
       </c>
       <c r="F91" t="str">
-        <f>IF(A91=A90,"",IF(A91=1+A90,"",A91-A90))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2520,7 +2527,7 @@
         <v>122</v>
       </c>
       <c r="F92" t="str">
-        <f>IF(A92=A91,"",IF(A92=1+A91,"",A92-A91))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2535,7 +2542,7 @@
         <v>122</v>
       </c>
       <c r="F93" t="str">
-        <f>IF(A93=A92,"",IF(A93=1+A92,"",A93-A92))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2550,7 +2557,7 @@
         <v>122</v>
       </c>
       <c r="F94" t="str">
-        <f>IF(A94=A93,"",IF(A94=1+A93,"",A94-A93))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2565,7 +2572,7 @@
         <v>122</v>
       </c>
       <c r="F95" t="str">
-        <f>IF(A95=A94,"",IF(A95=1+A94,"",A95-A94))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2580,7 +2587,7 @@
         <v>122</v>
       </c>
       <c r="F96" t="str">
-        <f>IF(A96=A95,"",IF(A96=1+A95,"",A96-A95))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2595,7 +2602,7 @@
         <v>122</v>
       </c>
       <c r="F97" t="str">
-        <f>IF(A97=A96,"",IF(A97=1+A96,"",A97-A96))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2610,7 +2617,7 @@
         <v>122</v>
       </c>
       <c r="F98" t="str">
-        <f>IF(A98=A97,"",IF(A98=1+A97,"",A98-A97))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2625,7 +2632,7 @@
         <v>122</v>
       </c>
       <c r="F99" t="str">
-        <f>IF(A99=A98,"",IF(A99=1+A98,"",A99-A98))</f>
+        <f t="shared" ref="F99:F132" si="3">IF(A99=A98,"",IF(A99=1+A98,"",A99-A98))</f>
         <v/>
       </c>
     </row>
@@ -2640,7 +2647,7 @@
         <v>122</v>
       </c>
       <c r="F100" t="str">
-        <f>IF(A100=A99,"",IF(A100=1+A99,"",A100-A99))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2655,7 +2662,7 @@
         <v>122</v>
       </c>
       <c r="F101" t="str">
-        <f>IF(A101=A100,"",IF(A101=1+A100,"",A101-A100))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2670,7 +2677,7 @@
         <v>122</v>
       </c>
       <c r="F102" t="str">
-        <f>IF(A102=A101,"",IF(A102=1+A101,"",A102-A101))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2685,7 +2692,7 @@
         <v>122</v>
       </c>
       <c r="F103" t="str">
-        <f>IF(A103=A102,"",IF(A103=1+A102,"",A103-A102))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2700,7 +2707,7 @@
         <v>122</v>
       </c>
       <c r="F104" t="str">
-        <f>IF(A104=A103,"",IF(A104=1+A103,"",A104-A103))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2715,7 +2722,7 @@
         <v>122</v>
       </c>
       <c r="F105" t="str">
-        <f>IF(A105=A104,"",IF(A105=1+A104,"",A105-A104))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2730,7 +2737,7 @@
         <v>122</v>
       </c>
       <c r="F106" t="str">
-        <f>IF(A106=A105,"",IF(A106=1+A105,"",A106-A105))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2745,7 +2752,7 @@
         <v>122</v>
       </c>
       <c r="F107" t="str">
-        <f>IF(A107=A106,"",IF(A107=1+A106,"",A107-A106))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2760,7 +2767,7 @@
         <v>122</v>
       </c>
       <c r="F108" t="str">
-        <f>IF(A108=A107,"",IF(A108=1+A107,"",A108-A107))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2775,7 +2782,7 @@
         <v>122</v>
       </c>
       <c r="F109" t="str">
-        <f>IF(A109=A108,"",IF(A109=1+A108,"",A109-A108))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2790,7 +2797,7 @@
         <v>122</v>
       </c>
       <c r="F110" t="str">
-        <f>IF(A110=A109,"",IF(A110=1+A109,"",A110-A109))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2805,7 +2812,7 @@
         <v>122</v>
       </c>
       <c r="F111" t="str">
-        <f>IF(A111=A110,"",IF(A111=1+A110,"",A111-A110))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2820,7 +2827,7 @@
         <v>122</v>
       </c>
       <c r="F112" t="str">
-        <f>IF(A112=A111,"",IF(A112=1+A111,"",A112-A111))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2835,7 +2842,7 @@
         <v>122</v>
       </c>
       <c r="F113" t="str">
-        <f>IF(A113=A112,"",IF(A113=1+A112,"",A113-A112))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2850,7 +2857,7 @@
         <v>122</v>
       </c>
       <c r="F114" t="str">
-        <f>IF(A114=A113,"",IF(A114=1+A113,"",A114-A113))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2865,7 +2872,7 @@
         <v>122</v>
       </c>
       <c r="F115" t="str">
-        <f>IF(A115=A114,"",IF(A115=1+A114,"",A115-A114))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2880,7 +2887,7 @@
         <v>122</v>
       </c>
       <c r="F116" t="str">
-        <f>IF(A116=A115,"",IF(A116=1+A115,"",A116-A115))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2895,7 +2902,7 @@
         <v>122</v>
       </c>
       <c r="F117" t="str">
-        <f>IF(A117=A116,"",IF(A117=1+A116,"",A117-A116))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2910,7 +2917,7 @@
         <v>122</v>
       </c>
       <c r="F118" t="str">
-        <f>IF(A118=A117,"",IF(A118=1+A117,"",A118-A117))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2925,7 +2932,7 @@
         <v>122</v>
       </c>
       <c r="F119" t="str">
-        <f>IF(A119=A118,"",IF(A119=1+A118,"",A119-A118))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2946,7 +2953,7 @@
         <v>133</v>
       </c>
       <c r="F120" t="str">
-        <f>IF(A120=A119,"",IF(A120=1+A119,"",A120-A119))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2961,7 +2968,7 @@
         <v>122</v>
       </c>
       <c r="F121" t="str">
-        <f>IF(A121=A120,"",IF(A121=1+A120,"",A121-A120))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2982,7 +2989,7 @@
         <v>133</v>
       </c>
       <c r="F122" t="str">
-        <f>IF(A122=A121,"",IF(A122=1+A121,"",A122-A121))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2997,7 +3004,7 @@
         <v>122</v>
       </c>
       <c r="F123" t="str">
-        <f>IF(A123=A122,"",IF(A123=1+A122,"",A123-A122))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -3012,7 +3019,7 @@
         <v>133</v>
       </c>
       <c r="F124" t="str">
-        <f>IF(A124=A123,"",IF(A124=1+A123,"",A124-A123))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -3027,7 +3034,7 @@
         <v>133</v>
       </c>
       <c r="F125" t="str">
-        <f>IF(A125=A124,"",IF(A125=1+A124,"",A125-A124))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -3045,7 +3052,7 @@
         <v>133</v>
       </c>
       <c r="F126">
-        <f>IF(A126=A125,"",IF(A126=1+A125,"",A126-A125))</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
@@ -3063,7 +3070,7 @@
         <v>133</v>
       </c>
       <c r="F127" t="str">
-        <f>IF(A127=A126,"",IF(A127=1+A126,"",A127-A126))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -3081,7 +3088,7 @@
         <v>133</v>
       </c>
       <c r="F128" t="str">
-        <f>IF(A128=A127,"",IF(A128=1+A127,"",A128-A127))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -3099,7 +3106,7 @@
         <v>133</v>
       </c>
       <c r="F129" t="str">
-        <f>IF(A129=A128,"",IF(A129=1+A128,"",A129-A128))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -3114,7 +3121,7 @@
         <v>132</v>
       </c>
       <c r="F130" t="str">
-        <f>IF(A130=A129,"",IF(A130=1+A129,"",A130-A129))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -3129,7 +3136,7 @@
         <v>132</v>
       </c>
       <c r="F131" t="str">
-        <f>IF(A131=A130,"",IF(A131=1+A130,"",A131-A130))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -3144,7 +3151,7 @@
         <v>132</v>
       </c>
       <c r="F132" t="str">
-        <f>IF(A132=A131,"",IF(A132=1+A131,"",A132-A131))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -3159,7 +3166,7 @@
         <v>122</v>
       </c>
       <c r="F133">
-        <f t="shared" ref="F133:F149" si="0">IF(A133=A132,"",IF(A133=1+A132,"",A133-A132))</f>
+        <f t="shared" ref="F133:F149" si="4">IF(A133=A132,"",IF(A133=1+A132,"",A133-A132))</f>
         <v>4</v>
       </c>
     </row>
@@ -3174,7 +3181,7 @@
         <v>122</v>
       </c>
       <c r="F134" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3189,7 +3196,7 @@
         <v>122</v>
       </c>
       <c r="F135" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3204,7 +3211,7 @@
         <v>122</v>
       </c>
       <c r="F136" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3219,7 +3226,7 @@
         <v>122</v>
       </c>
       <c r="F137" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3234,7 +3241,7 @@
         <v>122</v>
       </c>
       <c r="F138" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3249,7 +3256,7 @@
         <v>122</v>
       </c>
       <c r="F139" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3264,7 +3271,7 @@
         <v>122</v>
       </c>
       <c r="F140" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3279,7 +3286,7 @@
         <v>122</v>
       </c>
       <c r="F141" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3294,7 +3301,7 @@
         <v>122</v>
       </c>
       <c r="F142" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3309,7 +3316,7 @@
         <v>122</v>
       </c>
       <c r="F143" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3324,7 +3331,7 @@
         <v>122</v>
       </c>
       <c r="F144" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3339,7 +3346,7 @@
         <v>122</v>
       </c>
       <c r="F145" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3354,7 +3361,7 @@
         <v>122</v>
       </c>
       <c r="F146" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3369,7 +3376,7 @@
         <v>122</v>
       </c>
       <c r="F147" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3384,7 +3391,7 @@
         <v>122</v>
       </c>
       <c r="F148" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3399,7 +3406,7 @@
         <v>122</v>
       </c>
       <c r="F149">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
     </row>
@@ -3414,7 +3421,7 @@
         <v>132</v>
       </c>
       <c r="F150">
-        <f>IF(A150=A149,"",IF(A150=1+A149,"",A150-A149))</f>
+        <f t="shared" ref="F150:F164" si="5">IF(A150=A149,"",IF(A150=1+A149,"",A150-A149))</f>
         <v>297</v>
       </c>
     </row>
@@ -3429,7 +3436,7 @@
         <v>133</v>
       </c>
       <c r="F151" t="str">
-        <f>IF(A151=A150,"",IF(A151=1+A150,"",A151-A150))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3447,7 +3454,7 @@
         <v>133</v>
       </c>
       <c r="F152">
-        <f>IF(A152=A151,"",IF(A152=1+A151,"",A152-A151))</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -3462,7 +3469,7 @@
         <v>122</v>
       </c>
       <c r="F153" t="str">
-        <f>IF(A153=A152,"",IF(A153=1+A152,"",A153-A152))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3477,7 +3484,7 @@
         <v>122</v>
       </c>
       <c r="F154">
-        <f>IF(A154=A153,"",IF(A154=1+A153,"",A154-A153))</f>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
     </row>
@@ -3492,7 +3499,7 @@
         <v>122</v>
       </c>
       <c r="F155" t="str">
-        <f>IF(A155=A154,"",IF(A155=1+A154,"",A155-A154))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3513,7 +3520,7 @@
         <v>133</v>
       </c>
       <c r="F156">
-        <f>IF(A156=A155,"",IF(A156=1+A155,"",A156-A155))</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3531,7 +3538,7 @@
         <v>133</v>
       </c>
       <c r="F157">
-        <f>IF(A157=A156,"",IF(A157=1+A156,"",A157-A156))</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
@@ -3546,7 +3553,7 @@
         <v>122</v>
       </c>
       <c r="F158" t="str">
-        <f>IF(A158=A157,"",IF(A158=1+A157,"",A158-A157))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3561,7 +3568,7 @@
         <v>122</v>
       </c>
       <c r="F159">
-        <f>IF(A159=A158,"",IF(A159=1+A158,"",A159-A158))</f>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
@@ -3576,7 +3583,7 @@
         <v>132</v>
       </c>
       <c r="F160">
-        <f>IF(A160=A159,"",IF(A160=1+A159,"",A160-A159))</f>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
     </row>
@@ -3594,7 +3601,7 @@
         <v>133</v>
       </c>
       <c r="F161">
-        <f>IF(A161=A160,"",IF(A161=1+A160,"",A161-A160))</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
     </row>
@@ -3609,7 +3616,7 @@
         <v>132</v>
       </c>
       <c r="F162">
-        <f>IF(A162=A161,"",IF(A162=1+A161,"",A162-A161))</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
     </row>
@@ -3624,7 +3631,7 @@
         <v>132</v>
       </c>
       <c r="F163" t="str">
-        <f>IF(A163=A162,"",IF(A163=1+A162,"",A163-A162))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3639,7 +3646,7 @@
         <v>132</v>
       </c>
       <c r="F164" t="str">
-        <f>IF(A164=A163,"",IF(A164=1+A163,"",A164-A163))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
